--- a/results/I3_N5_M3_T30_C150_DepCentral_s4_P2_res.xlsx
+++ b/results/I3_N5_M3_T30_C150_DepCentral_s4_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.72746666901236</v>
+        <v>1589.136186453359</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.72746666901232</v>
+        <v>18.73569081392109</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>7.949791707393387</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4.350287346831242</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.280000000000015</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.72</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -747,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -780,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -791,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -802,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -813,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -874,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>21.61595173195241</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>23.15868643584639</v>
+        <v>24.77463816779881</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>12.46902814888773</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22.81602556806575</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25.14560977921956</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26.33383997544098</v>
+        <v>27.94979170739339</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,6 +1027,216 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>80.51000000000064</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>82.97000000000065</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>94.63500000000066</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>93.47500000000065</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>85.27000000000066</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>136.5050000000014</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>141.3700000000014</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>151.64</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>147.3350000000014</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>141.25</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>59.47000000000007</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>67.50500000000008</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>59.01500000000007</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>66.88500000000008</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>68.49000000000007</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>121.9549999999998</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>135.2699999999998</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>129.5199999999998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>135.9449999999998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>134.9399999999998</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>107.9950000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>105.5100000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>104.6650000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>104.5050000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>96.60500000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>121.9549999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>135.2699999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>129.5199999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>135.9449999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>134.9399999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>136.5050000000014</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>141.3700000000014</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>151.64</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>147.3350000000014</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>141.25</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -1670,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
@@ -1681,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>1.640000000000008</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
@@ -1703,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1761,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1772,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1783,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1794,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1915,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1937,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1948,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1959,7 +2224,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1970,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1981,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1992,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2003,7 +2268,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2014,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2055,12 +2320,166 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
